--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myresources.deloitte.com/personal/eberruttomorales_deloitte_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Documents\GitHub\HunterXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{CA6ECF4B-E6C8-485C-A3D1-4C7D5894A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16562CCD-EAC7-451B-BF9C-0630EC2583B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E045E5-90F6-4194-A5DE-5BEB4C209A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Testing WebApp" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
   <si>
     <t>Enumeration in login</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Malware (Eicar) can be uploaded</t>
-  </si>
-  <si>
-    <t>IDORs</t>
   </si>
   <si>
     <r>
@@ -159,9 +156,6 @@
     <t>Autentication/Session (Grey Box)</t>
   </si>
   <si>
-    <t>Business Logic</t>
-  </si>
-  <si>
     <t>Password Policy (Grey Box)</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
   </si>
   <si>
     <t>Server header version or similar</t>
-  </si>
-  <si>
-    <t>Autorize Plugin on Burp Pro</t>
   </si>
   <si>
     <t>Cookie/Tokens values disclosure sensite information</t>
@@ -622,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,9 +695,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,7 +782,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1090,687 +1078,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="36" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>77</v>
+      <c r="C1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="36"/>
+      <c r="B14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="35"/>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="36"/>
+      <c r="A15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="35"/>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="36"/>
+      <c r="B17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="35"/>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="36"/>
+      <c r="B18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="36"/>
+      <c r="B19" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="35"/>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="36"/>
+      <c r="B20" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="35"/>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="36"/>
+        <v>109</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="35"/>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="36"/>
+      <c r="B26" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="35"/>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="36"/>
+      <c r="B27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="35"/>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="36"/>
+      <c r="B28" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="35"/>
       <c r="D28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="36"/>
+      <c r="B29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="35"/>
       <c r="D29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="36"/>
+      <c r="B30" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="35"/>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="36"/>
+      <c r="B31" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="35"/>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="36"/>
+      <c r="B32" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="35"/>
       <c r="D32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="36"/>
+      <c r="B33" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="35"/>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="36"/>
+      <c r="B34" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="35"/>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="36"/>
+      <c r="B35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="35"/>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="36"/>
+      <c r="B36" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="35"/>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="36"/>
+      <c r="B37" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="35"/>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="35"/>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
+        <v>80</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="36"/>
+      <c r="B43" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="35"/>
       <c r="D43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="36"/>
+      <c r="A47" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="A48" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A49" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="35"/>
       <c r="D50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="42"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
+      <c r="B53" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="43"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="s">
+      <c r="B55" s="30"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="44"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
+      <c r="A58" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
+        <v>98</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
+        <v>99</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="D61"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D64"/>
+      <c r="D62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,467 +1752,467 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="45" style="41" customWidth="1"/>
+    <col min="2" max="3" width="45" style="40" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.5546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>77</v>
+      <c r="C1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+        <v>42</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+        <v>43</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="30"/>
+      <c r="A7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+        <v>46</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+        <v>52</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+        <v>53</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+        <v>57</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+        <v>59</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+        <v>61</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+        <v>62</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+        <v>63</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+        <v>65</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="30"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
+        <v>69</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+        <v>107</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="A46" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+        <v>70</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Documents\GitHub\HunterXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E045E5-90F6-4194-A5DE-5BEB4C209A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BEAFB-9A60-4A30-9D0F-200D510842E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,12 +147,6 @@
     <t>No TLS/SSL service (plain HTTP) (Login in GET method)</t>
   </si>
   <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Autentication/Session (Grey Box)</t>
   </si>
   <si>
@@ -395,6 +389,12 @@
   </si>
   <si>
     <t>User Enumeration</t>
+  </si>
+  <si>
+    <t>Reportado</t>
+  </si>
+  <si>
+    <t>No Reportado</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,24 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,12 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -665,9 +641,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,9 +652,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -703,13 +673,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,9 +721,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,663 +1050,663 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="C14" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B31" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B33" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B34" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B36" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A48" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="38"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="41"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
+      <c r="B51" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="35" t="s">
+      <c r="B52" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="35" t="s">
+      <c r="B53" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="40"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="43"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="31"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="31"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D61"/>
+      <c r="C61"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D62"/>
+      <c r="C62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1748,471 +1718,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE836336-8CA3-4D71-924A-9B847991569E}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="45" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="21"/>
+    <col min="1" max="1" width="69.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="36" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="36" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
+      <c r="C1" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="D1" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="42"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Documents\GitHub\HunterXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BEAFB-9A60-4A30-9D0F-200D510842E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D54913-1ED3-4414-ACD8-7305D9A3B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
   <si>
     <t>Enumeration in login</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>IIS Short Name Enumeration</t>
-  </si>
-  <si>
-    <t>Malware (Eicar) can be uploaded</t>
   </si>
   <si>
     <r>
@@ -395,6 +392,18 @@
   </si>
   <si>
     <t>No Reportado</t>
+  </si>
+  <si>
+    <t>Insecure file upload - Malware (Eicar) can be uploaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecure file upload - XSS in SVG - PDF - HTML </t>
+  </si>
+  <si>
+    <t>Insecure file upload - SSRF PDF</t>
+  </si>
+  <si>
+    <t>API Rate Limiter in API Endpoints</t>
   </si>
 </sst>
 </file>
@@ -609,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -732,6 +738,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,665 +1057,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="28" t="s">
         <v>72</v>
       </c>
+      <c r="D1" s="32" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="31"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="31"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="31"/>
+      <c r="A11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="31"/>
+      <c r="A12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="C21" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="B22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="31"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="B30" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="B31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="B32" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="B33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="B34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="B35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="B36" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="B37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="B38" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="B39" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="B40" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="31"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="31"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="31"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="31"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="B46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="31"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="31"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="31"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="37"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="38"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="B53" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="31"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+      <c r="B54" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="31"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B55" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="31"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
+      <c r="B56" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="31"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="31"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="31"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="31"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="31"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C61"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C62"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1724,466 +1755,466 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="36" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="36" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="18"/>
+    <col min="1" max="1" width="69.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="35" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="28" t="s">
         <v>72</v>
       </c>
+      <c r="D1" s="32" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="41"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="34"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="35"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="34"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="35"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="42"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="34"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Documents\GitHub\HunterXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D54913-1ED3-4414-ACD8-7305D9A3B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1226E9-D7E6-403F-8815-626A96E8579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
   <si>
     <t>Enumeration in login</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>API Rate Limiter in API Endpoints</t>
+  </si>
+  <si>
+    <t>Invalid Certificate (expired, self signed)</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,9 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,9 +1057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1245,93 +1247,95 @@
       </c>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="C22" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B23" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="C23" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="45" t="s">
@@ -1339,41 +1343,39 @@
       </c>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>74</v>
@@ -1384,8 +1386,8 @@
       <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>13</v>
+      <c r="A31" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>74</v>
@@ -1397,7 +1399,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>74</v>
@@ -1409,7 +1411,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>74</v>
@@ -1421,7 +1423,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>74</v>
@@ -1433,7 +1435,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>74</v>
@@ -1445,7 +1447,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>74</v>
@@ -1457,7 +1459,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>74</v>
@@ -1469,7 +1471,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>74</v>
@@ -1480,8 +1482,8 @@
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>21</v>
+      <c r="A39" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>74</v>
@@ -1491,9 +1493,9 @@
       </c>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>22</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>74</v>
@@ -1503,27 +1505,29 @@
       </c>
       <c r="D40" s="30"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="45" t="s">
@@ -1532,12 +1536,10 @@
       <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>80</v>
-      </c>
+      <c r="A44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="30"/>
       <c r="C44" s="45" t="s">
         <v>37</v>
       </c>
@@ -1545,21 +1547,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>78</v>
-      </c>
+      <c r="B46" s="30"/>
       <c r="C46" s="45" t="s">
         <v>37</v>
       </c>
@@ -1567,17 +1569,19 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="45" t="s">
@@ -1586,8 +1590,8 @@
       <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>32</v>
+      <c r="A49" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="45" t="s">
@@ -1596,8 +1600,8 @@
       <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>68</v>
+      <c r="A50" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="45" t="s">
@@ -1606,8 +1610,8 @@
       <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>69</v>
+      <c r="A51" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="45" t="s">
@@ -1616,28 +1620,26 @@
       <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="37"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="37"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
-        <v>90</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>105</v>
@@ -1649,7 +1651,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>105</v>
@@ -1660,8 +1662,8 @@
       <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>92</v>
+      <c r="A56" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>105</v>
@@ -1672,36 +1674,38 @@
       <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="30"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="45" t="s">
@@ -1711,7 +1715,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="45" t="s">
@@ -1721,7 +1725,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="45" t="s">
@@ -1731,13 +1735,23 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Documents\GitHub\HunterXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1226E9-D7E6-403F-8815-626A96E8579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019F83F-4350-4BB9-88BC-C4BA214044BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
   <si>
     <t>Enumeration in login</t>
   </si>
@@ -244,9 +244,6 @@
     <t xml:space="preserve">CVE-2003-0190 </t>
   </si>
   <si>
-    <t>ssh-auth-methods</t>
-  </si>
-  <si>
     <t>FTP</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>In login and/or  recovery</t>
-  </si>
-  <si>
     <t>JWT (Grey Box)</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
     <t>All Checks must be in one finding "Weak Recovery Function"</t>
   </si>
   <si>
-    <t>Time Based Enumeration</t>
-  </si>
-  <si>
     <t>User Enumeration</t>
   </si>
   <si>
@@ -407,6 +398,173 @@
   </si>
   <si>
     <t>Invalid Certificate (expired, self signed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo nmap -sU -p &lt;port&gt; --script=banner &lt;target&gt;
+dig CH @&lt;target&gt; version.bind TXT  
+dig CH @&lt;target&gt; authors.bind TXT  </t>
+  </si>
+  <si>
+    <t>sudo nmap -sV -p &lt;port&gt; --script=banner &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>IKE Protocol</t>
+  </si>
+  <si>
+    <t>ike-scan -M &lt;target&gt;
+Chequear VPN y modo, el "-M" es para dividir el output. Los resultados pueden ser:
+0 returned handshake; 0 returned notify: This means the target is not an IPsec gateway.
+1 returned handshake; 0 returned notify: This means the target is configured for IPsec 
+and is willing to perform IKE negotiation, and either one or more of the transforms 
+you proposed are acceptable (a valid transform will be shown in the output)
+0 returned handshake; 1 returned notify: VPN gateways respond with a notify message 
+when none of the transforms are acceptable (though some gateways do not, in which case further analysis and a revised proposal should be tried).</t>
+  </si>
+  <si>
+    <t>ismtp -i &lt;email@dominio.com&gt; -x -h &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>use auxiliary/scanner/rdp/cve_2019_0708_bluekeep</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Information disclosure</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -b &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV -p &lt;port&gt; --script=banner &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV --script=rdp-vuln-ms12-020 -p &lt;port&gt; &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV --script=rdp-ntlm-info -p &lt;port&gt; &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p &lt;port&gt; --script telnet-ntlm-info &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV --script smb-enum-shares.nse -p &lt;port&gt; &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV --script smb-vuln-ms17-010.nse -p &lt;port&gt; &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV --script smb-enum-users.nse -p &lt;port&gt; &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sU -p &lt;port&gt; --script dns-cache-snoop.nse &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sU -p &lt;port&gt; --script=dns-zone-transfer --script-args dns-zone-transfer.domain=&lt;domain&gt; &lt;target&gt;
+dnswalk -domain &lt;domain&gt;.</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV -p &lt;port&gt; --script smtp-commands.nse &lt;target&gt;
+telnet &lt;target&gt;
+HELO
+VRFY &lt;mail&gt;
+EXPN &lt;mail&gt;
+smtp-user-enum.pl -M VRFY -U &lt;users_list.txt&gt; -t &lt;target&gt;
+smtp-user-enum.pl -M EXPN -u &lt;usuario&gt; -t &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sV -p &lt;port&gt; --script=ftp-anon &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p &lt;port&gt; --script ssh-auth-methods --script-args="ssh.user=&lt;username&gt;" &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>Weak Ciphers</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p &lt;port&gt; --script ssh2-enum-algos &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>Manual (help with auxiliary/scanner/ftp/ftp_login)</t>
+  </si>
+  <si>
+    <t>Manual (use ssh)</t>
+  </si>
+  <si>
+    <t>Manual (use telnet)</t>
+  </si>
+  <si>
+    <t>Manual (use RDP)</t>
+  </si>
+  <si>
+    <t>dig google.com A @&lt;target&gt;
+dig . NS @&lt;target&gt;</t>
+  </si>
+  <si>
+    <t>use auxiliary/scanner/ssh/ssh_enumusers</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -sU --script snmp-interfaces.nse -p &lt;port&gt; &lt;target&gt;
+sudo nmap -Pn -sU --script snmp-sysdescr.nse -p &lt;port&gt; &lt;target&gt;
+sudo nmap -Pn -sU --script snmp-info.nse -p &lt;port&gt; &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>snmp-check &lt;target&gt;  -p &lt;port&gt;  -c public
+sudo nmap -Pn -sU --script snmp-brute.nse -p &lt;port&gt; &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>Try to login</t>
+  </si>
+  <si>
+    <t>Use burp and response</t>
+  </si>
+  <si>
+    <t>Crawl the site</t>
+  </si>
+  <si>
+    <t>Try to send invalid request in URL anda params in GET,POST, etc</t>
+  </si>
+  <si>
+    <t>use exiftool &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>Check the result of content discovery</t>
+  </si>
+  <si>
+    <t>Check how to works the captcha</t>
+  </si>
+  <si>
+    <t>Upload the eicar file</t>
+  </si>
+  <si>
+    <t>Upload  a file with XSS</t>
+  </si>
+  <si>
+    <t>Check if a login is availeable</t>
+  </si>
+  <si>
+    <t>In the Administrative interfaces  tray defautl credentials</t>
+  </si>
+  <si>
+    <t>Use the intruder</t>
+  </si>
+  <si>
+    <t>Time Based Enumeration (In login and/or  recovery)</t>
+  </si>
+  <si>
+    <t>Use Burp</t>
+  </si>
+  <si>
+    <t>use  java -jar iis_shortname_scanner.jar &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>This can be found by tools but it is possible  some tools do not detect. Check  the endpoints manually use burp and check the server response</t>
+  </si>
+  <si>
+    <t>python3 jwt_tool.py &lt;&lt;JWT_TOKEN&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -607,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,9 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -741,6 +896,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1059,699 +1220,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" style="30" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>71</v>
       </c>
+      <c r="D1" s="31" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="30"/>
+      <c r="B3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="30"/>
+      <c r="B4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="30"/>
+      <c r="B5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="B6" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="30"/>
+      <c r="B7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="30"/>
+      <c r="B8" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="30"/>
+      <c r="B9" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="B10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="B19" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="30"/>
+      <c r="B21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="30"/>
+      <c r="B22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="30"/>
+      <c r="B23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="30"/>
+      <c r="B24" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="B25" s="28"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="30"/>
+      <c r="B26" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="30"/>
+      <c r="B27" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="30"/>
+      <c r="A28" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="30"/>
+      <c r="B30" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="30"/>
+      <c r="B31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="30"/>
+      <c r="B32" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="30"/>
+      <c r="B33" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="30"/>
+      <c r="B34" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="30"/>
+      <c r="B35" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="30"/>
+      <c r="B36" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="30"/>
+      <c r="B37" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="30"/>
+      <c r="B38" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="30"/>
+      <c r="B39" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="30"/>
+      <c r="B40" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="30"/>
+      <c r="B41" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="29"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="30"/>
+      <c r="B43" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="30"/>
+      <c r="B44" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="30"/>
+      <c r="C45" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="30"/>
+      <c r="A46" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="30"/>
+      <c r="B47" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="30"/>
+      <c r="B48" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="30"/>
+      <c r="B49" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="30"/>
+      <c r="B50" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="30"/>
+      <c r="B52" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="36"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="37"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="B55" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="29"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+      <c r="B56" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="29"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="30"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
+      <c r="B57" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="29"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="B59" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="30"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="B60" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="29"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="29"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
+      <c r="B63" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="29"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="30"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="30"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="30"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="30"/>
+      <c r="B64" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1761,476 +1980,571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE836336-8CA3-4D71-924A-9B847991569E}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="35" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="69.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.21875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="28" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="D1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="B5" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="B6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="B7" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="34"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="B10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="B12" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="34"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="34"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="B17" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="34"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="B21" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="B22" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="34"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="B23" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="B24" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="B25" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="34"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="B28" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="B29" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="34"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="34"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="B36" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="B37" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="33"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="41"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="34"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+      <c r="B47" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="33"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="34"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="34"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Documents\GitHub\HunterXL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019F83F-4350-4BB9-88BC-C4BA214044BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B53BC5-EFCB-406E-903D-352D71BF5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Testing WebApp" sheetId="10" r:id="rId1"/>
     <sheet name="Manual Testing External" sheetId="11" r:id="rId2"/>
+    <sheet name="Mobile Security Testing" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="185">
   <si>
     <t>Enumeration in login</t>
   </si>
@@ -566,12 +567,84 @@
   <si>
     <t>python3 jwt_tool.py &lt;&lt;JWT_TOKEN&gt;&gt;</t>
   </si>
+  <si>
+    <t>Note: Check the WebApp list and test it.</t>
+  </si>
+  <si>
+    <t>Mobile application may be installed on unsupported OS versions</t>
+  </si>
+  <si>
+    <t>Application update is not enforced</t>
+  </si>
+  <si>
+    <t>Binary code not obfuscated</t>
+  </si>
+  <si>
+    <t>Mobile application communication may not be restricted to trusted SSL / TLS certificates</t>
+  </si>
+  <si>
+    <t>Screen capture not disabled for all user input functions</t>
+  </si>
+  <si>
+    <t>Sensitive information logged to device logs</t>
+  </si>
+  <si>
+    <t>Sensitive information stored in memory</t>
+  </si>
+  <si>
+    <t>Sensitive Information in Java/Apache Cordova code</t>
+  </si>
+  <si>
+    <t>Sensitive information stored within device files</t>
+  </si>
+  <si>
+    <t>All Devices</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Application vulnerable to TapJacking</t>
+  </si>
+  <si>
+    <t>Sensitive information leaked via the Clipboard</t>
+  </si>
+  <si>
+    <t>Mobile application can be executed in an unsafe environment</t>
+  </si>
+  <si>
+    <t>Insecure Android Manifest configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsafe Android activities configuration </t>
+  </si>
+  <si>
+    <t>Application can be re-emsably</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Insecure backgrounding</t>
+  </si>
+  <si>
+    <t>Sensitive information leaked via the Pasteboard</t>
+  </si>
+  <si>
+    <t>iPhone application unaware of jailbreak status</t>
+  </si>
+  <si>
+    <t>Weak Application Transport Security (ATS) configuration</t>
+  </si>
+  <si>
+    <t>Position independent executable (PIE) not set (iOS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -595,6 +668,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -765,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,12 +976,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1627,7 @@
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -1983,7 +2065,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2099,7 @@
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="45"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -2030,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="33"/>
-      <c r="E3" s="45"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
@@ -2547,4 +2629,282 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9B3556-B887-48E2-96AF-2E0800EB6281}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myresources.deloitte.com/personal/fceballos_deloitte_com/Documents/Documents/Personal Documents/Recursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B53BC5-EFCB-406E-903D-352D71BF5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E3B53BC5-EFCB-406E-903D-352D71BF5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A937FB7-EE72-40EE-B2D5-174DA10BDF96}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Testing WebApp" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="189">
   <si>
     <t>Enumeration in login</t>
   </si>
@@ -638,6 +638,18 @@
   </si>
   <si>
     <t>Position independent executable (PIE) not set (iOS)</t>
+  </si>
+  <si>
+    <t>python3 jwt_tool.py &lt;&lt;JWT_TOKEN&gt;&gt; -X a</t>
+  </si>
+  <si>
+    <t>python3 jwt_tool.py &lt;&lt;JWT_TOKEN&gt;&gt; -C -d &lt;wordlist.txt&gt;</t>
+  </si>
+  <si>
+    <t>Common Vulnerabilities</t>
+  </si>
+  <si>
+    <t>python3 jwt_tool.py &lt;&lt;JWT_TOKEN&gt;&gt; -M pb</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1016,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1300,21 +1312,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="50.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6328125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>84</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1348,7 @@
       <c r="C2" s="37"/>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1360,7 @@
       </c>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1360,7 +1372,7 @@
       </c>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1384,7 @@
       </c>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1396,7 @@
       </c>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1408,7 @@
       </c>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1420,7 @@
       </c>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1432,7 @@
       </c>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1444,7 @@
       </c>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>107</v>
       </c>
@@ -1444,7 +1456,7 @@
       </c>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>108</v>
       </c>
@@ -1456,7 +1468,7 @@
       </c>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>109</v>
       </c>
@@ -1466,7 +1478,7 @@
       </c>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -1478,7 +1490,7 @@
       </c>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>99</v>
       </c>
@@ -1490,7 +1502,7 @@
       </c>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1514,7 @@
       </c>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>75</v>
       </c>
@@ -1514,7 +1526,7 @@
       </c>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>111</v>
       </c>
@@ -1526,7 +1538,7 @@
       </c>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>110</v>
       </c>
@@ -1538,7 +1550,7 @@
       </c>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1558,7 @@
       <c r="C20" s="42"/>
       <c r="D20" s="43"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1570,7 @@
       </c>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1582,7 @@
       </c>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1594,7 @@
       </c>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1606,7 @@
       </c>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
@@ -1602,7 +1614,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1626,7 @@
       </c>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="45" t="s">
         <v>156</v>
       </c>
@@ -1638,7 +1650,7 @@
       </c>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1646,7 +1658,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="28"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1670,7 @@
       </c>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1670,7 +1682,7 @@
       </c>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1694,7 @@
       </c>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1706,7 @@
       </c>
       <c r="D33" s="29"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
@@ -1706,7 +1718,7 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>16</v>
       </c>
@@ -1718,7 +1730,7 @@
       </c>
       <c r="D35" s="29"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1742,7 @@
       </c>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1754,7 @@
       </c>
       <c r="D37" s="29"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1766,7 @@
       </c>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>20</v>
       </c>
@@ -1766,7 +1778,7 @@
       </c>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1790,7 @@
       </c>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
@@ -1790,7 +1802,7 @@
       </c>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1810,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="28"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1822,7 @@
       </c>
       <c r="D43" s="29"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1822,7 +1834,7 @@
       </c>
       <c r="D44" s="29"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>78</v>
       </c>
@@ -1834,7 +1846,7 @@
       </c>
       <c r="D45" s="29"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>76</v>
       </c>
@@ -1846,7 +1858,7 @@
       </c>
       <c r="D46" s="29"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1870,7 @@
       </c>
       <c r="D47" s="29"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +1882,7 @@
       </c>
       <c r="D48" s="29"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>36</v>
       </c>
@@ -1882,7 +1894,7 @@
       </c>
       <c r="D49" s="29"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
         <v>32</v>
       </c>
@@ -1894,7 +1906,7 @@
       </c>
       <c r="D50" s="29"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
         <v>67</v>
       </c>
@@ -1906,7 +1918,7 @@
       </c>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="22" t="s">
         <v>68</v>
       </c>
@@ -1918,7 +1930,7 @@
       </c>
       <c r="D52" s="29"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>86</v>
       </c>
@@ -1926,7 +1938,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="36"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +1950,7 @@
       </c>
       <c r="D54" s="29"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
         <v>88</v>
       </c>
@@ -1950,7 +1962,7 @@
       </c>
       <c r="D55" s="29"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
         <v>89</v>
       </c>
@@ -1962,7 +1974,7 @@
       </c>
       <c r="D56" s="29"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>90</v>
       </c>
@@ -1974,7 +1986,7 @@
       </c>
       <c r="D57" s="29"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="37" t="s">
         <v>85</v>
       </c>
@@ -1982,31 +1994,31 @@
       <c r="C58" s="37"/>
       <c r="D58" s="38"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C59" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C60" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="29"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>97</v>
       </c>
@@ -2018,7 +2030,7 @@
       </c>
       <c r="D61" s="29"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>98</v>
       </c>
@@ -2030,7 +2042,7 @@
       </c>
       <c r="D62" s="29"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
         <v>93</v>
       </c>
@@ -2042,7 +2054,7 @@
       </c>
       <c r="D63" s="29"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
         <v>94</v>
       </c>
@@ -2053,6 +2065,18 @@
         <v>37</v>
       </c>
       <c r="D64" s="29"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2068,16 +2092,16 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.21875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.44140625" style="34" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="16"/>
+    <col min="1" max="1" width="69.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.1796875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.453125" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="11.54296875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
@@ -2092,7 +2116,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>114</v>
       </c>
@@ -2101,7 +2125,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>115</v>
       </c>
@@ -2114,7 +2138,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>38</v>
       </c>
@@ -2122,7 +2146,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>39</v>
       </c>
@@ -2134,7 +2158,7 @@
       </c>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
@@ -2146,7 +2170,7 @@
       </c>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2182,7 @@
       </c>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>42</v>
       </c>
@@ -2166,7 +2190,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>43</v>
       </c>
@@ -2178,7 +2202,7 @@
       </c>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2214,7 @@
       </c>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>45</v>
       </c>
@@ -2202,7 +2226,7 @@
       </c>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>41</v>
       </c>
@@ -2225,7 +2249,7 @@
       </c>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
@@ -2233,7 +2257,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
@@ -2245,7 +2269,7 @@
       </c>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>49</v>
       </c>
@@ -2257,7 +2281,7 @@
       </c>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>50</v>
       </c>
@@ -2269,7 +2293,7 @@
       </c>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>51</v>
       </c>
@@ -2281,7 +2305,7 @@
       </c>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -2289,7 +2313,7 @@
       <c r="C19" s="23"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>95</v>
       </c>
@@ -2301,7 +2325,7 @@
       </c>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
@@ -2313,7 +2337,7 @@
       </c>
       <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
@@ -2325,7 +2349,7 @@
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>54</v>
       </c>
@@ -2337,7 +2361,7 @@
       </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>55</v>
       </c>
@@ -2349,7 +2373,7 @@
       </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>56</v>
       </c>
@@ -2361,7 +2385,7 @@
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>57</v>
       </c>
@@ -2369,7 +2393,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>95</v>
       </c>
@@ -2381,7 +2405,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>58</v>
       </c>
@@ -2393,7 +2417,7 @@
       </c>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>59</v>
       </c>
@@ -2405,7 +2429,7 @@
       </c>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>134</v>
       </c>
@@ -2417,7 +2441,7 @@
       </c>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2453,7 @@
       </c>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
@@ -2437,7 +2461,7 @@
       <c r="C32" s="23"/>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>100</v>
       </c>
@@ -2449,7 +2473,7 @@
       </c>
       <c r="D33" s="33"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>95</v>
       </c>
@@ -2461,7 +2485,7 @@
       </c>
       <c r="D34" s="33"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>48</v>
       </c>
@@ -2473,7 +2497,7 @@
       </c>
       <c r="D35" s="33"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>53</v>
       </c>
@@ -2485,7 +2509,7 @@
       </c>
       <c r="D36" s="33"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>61</v>
       </c>
@@ -2497,7 +2521,7 @@
       </c>
       <c r="D37" s="33"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>62</v>
       </c>
@@ -2509,7 +2533,7 @@
       </c>
       <c r="D38" s="33"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="39" t="s">
         <v>63</v>
       </c>
@@ -2521,7 +2545,7 @@
       </c>
       <c r="D39" s="40"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="41" t="s">
         <v>64</v>
       </c>
@@ -2529,7 +2553,7 @@
       <c r="C40" s="23"/>
       <c r="D40" s="32"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>95</v>
       </c>
@@ -2541,7 +2565,7 @@
       </c>
       <c r="D41" s="33"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>48</v>
       </c>
@@ -2553,7 +2577,7 @@
       </c>
       <c r="D42" s="33"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>53</v>
       </c>
@@ -2565,7 +2589,7 @@
       </c>
       <c r="D43" s="33"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>65</v>
       </c>
@@ -2577,7 +2601,7 @@
       </c>
       <c r="D44" s="33"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="41" t="s">
         <v>101</v>
       </c>
@@ -2585,7 +2609,7 @@
       <c r="C45" s="23"/>
       <c r="D45" s="32"/>
     </row>
-    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>120</v>
       </c>
@@ -2597,7 +2621,7 @@
       </c>
       <c r="D46" s="33"/>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>102</v>
       </c>
@@ -2609,7 +2633,7 @@
       </c>
       <c r="D47" s="33"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="41" t="s">
         <v>96</v>
       </c>
@@ -2617,7 +2641,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
@@ -2635,18 +2659,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9B3556-B887-48E2-96AF-2E0800EB6281}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="78.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
@@ -2660,7 +2684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>96</v>
       </c>
@@ -2668,7 +2692,7 @@
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>161</v>
       </c>
@@ -2676,7 +2700,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>171</v>
       </c>
@@ -2684,7 +2708,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>162</v>
       </c>
@@ -2694,7 +2718,7 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>163</v>
       </c>
@@ -2704,7 +2728,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>164</v>
       </c>
@@ -2714,7 +2738,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>165</v>
       </c>
@@ -2724,7 +2748,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
         <v>166</v>
       </c>
@@ -2734,7 +2758,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="47" t="s">
         <v>167</v>
       </c>
@@ -2744,7 +2768,7 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
         <v>168</v>
       </c>
@@ -2754,7 +2778,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
         <v>169</v>
       </c>
@@ -2764,7 +2788,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
         <v>170</v>
       </c>
@@ -2774,7 +2798,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>172</v>
       </c>
@@ -2784,7 +2808,7 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
         <v>173</v>
       </c>
@@ -2794,7 +2818,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
         <v>174</v>
       </c>
@@ -2804,7 +2828,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="47" t="s">
         <v>175</v>
       </c>
@@ -2814,7 +2838,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
         <v>176</v>
       </c>
@@ -2824,7 +2848,7 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="47" t="s">
         <v>177</v>
       </c>
@@ -2834,7 +2858,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="47" t="s">
         <v>178</v>
       </c>
@@ -2844,7 +2868,7 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
         <v>179</v>
       </c>
@@ -2854,7 +2878,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
         <v>180</v>
       </c>
@@ -2864,7 +2888,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="47" t="s">
         <v>181</v>
       </c>
@@ -2874,7 +2898,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="47" t="s">
         <v>182</v>
       </c>
@@ -2884,7 +2908,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="49" t="s">
         <v>183</v>
       </c>
@@ -2894,7 +2918,7 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="47" t="s">
         <v>184</v>
       </c>

--- a/Manual Security Checks.xlsx
+++ b/Manual Security Checks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myresources.deloitte.com/personal/fceballos_deloitte_com/Documents/Documents/Personal Documents/Recursos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxi\Documents\GitHub\HunterXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E3B53BC5-EFCB-406E-903D-352D71BF5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A937FB7-EE72-40EE-B2D5-174DA10BDF96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A8368-E6E7-4D1D-8FDF-B92752E44B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Testing WebApp" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="197">
   <si>
     <t>Enumeration in login</t>
   </si>
@@ -559,9 +559,6 @@
     <t>Use Burp</t>
   </si>
   <si>
-    <t>use  java -jar iis_shortname_scanner.jar &lt;target&gt;</t>
-  </si>
-  <si>
     <t>This can be found by tools but it is possible  some tools do not detect. Check  the endpoints manually use burp and check the server response</t>
   </si>
   <si>
@@ -650,6 +647,35 @@
   </si>
   <si>
     <t>python3 jwt_tool.py &lt;&lt;JWT_TOKEN&gt;&gt; -M pb</t>
+  </si>
+  <si>
+    <t>use  java -jar iis_shortname_scanner.jar &lt;target&gt;
+Metasploit  use auxiliary/scanner/http/iis_shortname_scanner)</t>
+  </si>
+  <si>
+    <t>IIS Internal IP Disclosure</t>
+  </si>
+  <si>
+    <t>sudo nmap --script http-intern-ip-disclosure target
+Or Burp Request GET /not HTTP 1.0</t>
+  </si>
+  <si>
+    <t>Multiples checks with nmap</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p PORTS --script vuln,default,banner,ftp-anon,ftp-bounce,ftp-syst</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p PORTS --script vuln,default,banner,telnet-ntlm-info</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p PORTS --script vuln,default,banner</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p PORTS --script vuln,default,banner,ssh-auth-methods,sshv1</t>
+  </si>
+  <si>
+    <t>sudo nmap -Pn -p PORTS --script vuln,default,banner,dns-cache-snoop,dns-recursion</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1042,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,21 +1338,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.36328125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>84</v>
       </c>
@@ -1340,7 +1366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1374,7 @@
       <c r="C2" s="37"/>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1386,7 @@
       </c>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1398,7 @@
       </c>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1384,7 +1410,7 @@
       </c>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1422,7 @@
       </c>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1434,7 @@
       </c>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1420,215 +1446,213 @@
       </c>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="C18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+      <c r="C19" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B20" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
+      <c r="C20" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="C22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="C23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B24" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="C24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>119</v>
@@ -1638,41 +1662,41 @@
       </c>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="45" t="s">
+    <row r="28" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B29" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>73</v>
@@ -1682,9 +1706,9 @@
       </c>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>13</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>73</v>
@@ -1694,9 +1718,9 @@
       </c>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>73</v>
@@ -1706,9 +1730,9 @@
       </c>
       <c r="D33" s="29"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>73</v>
@@ -1718,9 +1742,9 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>73</v>
@@ -1730,9 +1754,9 @@
       </c>
       <c r="D35" s="29"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>73</v>
@@ -1742,9 +1766,9 @@
       </c>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>73</v>
@@ -1754,9 +1778,9 @@
       </c>
       <c r="D37" s="29"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>73</v>
@@ -1766,9 +1790,9 @@
       </c>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>73</v>
@@ -1778,9 +1802,9 @@
       </c>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>21</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>73</v>
@@ -1790,9 +1814,9 @@
       </c>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>22</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>73</v>
@@ -1802,101 +1826,101 @@
       </c>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B44" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="C44" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="29"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B45" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+      <c r="C45" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B46" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+      <c r="C46" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B47" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="C47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B48" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="C48" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B49" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="C49" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>119</v>
@@ -1906,53 +1930,53 @@
       </c>
       <c r="D50" s="29"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="22" t="s">
+      <c r="C52" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="29"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B53" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="35" t="s">
+      <c r="C53" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="29"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="36"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="24" t="s">
+      <c r="B54" s="36"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="36"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>103</v>
@@ -1962,9 +1986,9 @@
       </c>
       <c r="D55" s="29"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>103</v>
@@ -1974,9 +1998,9 @@
       </c>
       <c r="D56" s="29"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="24" t="s">
-        <v>90</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>103</v>
@@ -1986,97 +2010,109 @@
       </c>
       <c r="D57" s="29"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="37" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="29"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="22" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B60" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="29"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="24" t="s">
+      <c r="C61" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="29"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="29"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="29"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="29"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="29"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="29"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="29"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="29"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="22" t="s">
+      <c r="B66" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B65" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="29"/>
+      <c r="C66" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2086,22 +2122,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE836336-8CA3-4D71-924A-9B847991569E}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.1796875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.453125" style="34" customWidth="1"/>
-    <col min="5" max="16384" width="11.54296875" style="16"/>
+    <col min="1" max="1" width="69.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.21875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
@@ -2116,7 +2152,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>114</v>
       </c>
@@ -2125,7 +2161,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>115</v>
       </c>
@@ -2138,7 +2174,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>38</v>
       </c>
@@ -2146,7 +2182,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>39</v>
       </c>
@@ -2158,7 +2194,7 @@
       </c>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
@@ -2170,7 +2206,7 @@
       </c>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>41</v>
       </c>
@@ -2182,7 +2218,7 @@
       </c>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>42</v>
       </c>
@@ -2190,7 +2226,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2238,7 @@
       </c>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>44</v>
       </c>
@@ -2214,7 +2250,7 @@
       </c>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>45</v>
       </c>
@@ -2226,7 +2262,7 @@
       </c>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>46</v>
       </c>
@@ -2237,7 +2273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>41</v>
       </c>
@@ -2249,257 +2285,257 @@
       </c>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="C16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B17" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="C17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B18" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+      <c r="C18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B19" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="C19" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B21" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="C21" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="C22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B23" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="C23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B24" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="C24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B25" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="C25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="C26" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B28" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="C28" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B29" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="C29" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B30" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="C30" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B31" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="C31" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B32" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="C32" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B35" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="C35" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>136</v>
@@ -2509,145 +2545,205 @@
       </c>
       <c r="D36" s="33"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B39" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="C39" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B40" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="39" t="s">
+      <c r="C40" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B41" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="40"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="41" t="s">
+      <c r="C41" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="40"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="40"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B44" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="19" t="s">
+      <c r="C44" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B45" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+      <c r="C45" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B46" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
+      <c r="C46" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B47" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="41" t="s">
+      <c r="C47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="33"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+      <c r="C50" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B51" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="41" t="s">
+      <c r="C51" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2663,14 +2759,14 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" customWidth="1"/>
+    <col min="1" max="1" width="78.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
@@ -2684,7 +2780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>96</v>
       </c>
@@ -2692,25 +2788,25 @@
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>37</v>
@@ -2718,9 +2814,9 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>37</v>
@@ -2728,9 +2824,9 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>37</v>
@@ -2738,9 +2834,9 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>37</v>
@@ -2748,9 +2844,9 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>37</v>
@@ -2758,9 +2854,9 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>37</v>
@@ -2768,9 +2864,9 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>37</v>
@@ -2778,9 +2874,9 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>37</v>
@@ -2788,9 +2884,9 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>37</v>
@@ -2798,9 +2894,9 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>37</v>
@@ -2808,9 +2904,9 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>37</v>
@@ -2818,9 +2914,9 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>37</v>
@@ -2828,9 +2924,9 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>37</v>
@@ -2838,9 +2934,9 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>37</v>
@@ -2848,9 +2944,9 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>37</v>
@@ -2858,9 +2954,9 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>37</v>
@@ -2868,9 +2964,9 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>37</v>
@@ -2878,9 +2974,9 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>37</v>
@@ -2888,9 +2984,9 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>37</v>
@@ -2898,9 +2994,9 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>37</v>
@@ -2908,9 +3004,9 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>37</v>
@@ -2918,9 +3014,9 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>37</v>
